--- a/AutoChessServer/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnrealProject\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB00DBB-499E-401F-A47C-1D9183F20BD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="23360" tabRatio="990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -140,19 +146,29 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6001</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,7 +194,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -190,6 +207,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -200,158 +218,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,194 +250,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -711,255 +405,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,58 +478,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -1150,6 +558,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1407,36 +818,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
-    <col min="2" max="2" width="15.5480769230769" customWidth="1"/>
-    <col min="3" max="3" width="15.8653846153846" customWidth="1"/>
-    <col min="4" max="4" width="14.9038461538462" customWidth="1"/>
-    <col min="5" max="5" width="11.6923076923077" customWidth="1"/>
-    <col min="6" max="6" width="12.3365384615385" customWidth="1"/>
-    <col min="7" max="7" width="21.7884615384615" customWidth="1"/>
-    <col min="8" max="8" width="11.8557692307692" customWidth="1"/>
-    <col min="9" max="9" width="20.6730769230769" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="22.7596153846154" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" spans="1:11">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1506,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17" spans="1:11">
+    <row r="3" spans="1:11" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="17" spans="1:11">
+    <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="17" spans="1:11">
+    <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="17" spans="1:11">
+    <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:11">
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1681,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:11">
+    <row r="8" spans="1:11" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:11">
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.75" spans="1:11">
+    <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1782,8 +1192,8 @@
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
+      <c r="B11" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -2024,14 +1434,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>